--- a/tools/DevelopTool/TriTuple/色温灯productID_3854的数据.xlsx
+++ b/tools/DevelopTool/TriTuple/色温灯productID_3854的数据.xlsx
@@ -1,95 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="设备密钥表" sheetId="1" r:id="rId3"/>
+    <sheet name="设备密钥表" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">三元组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device Secret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">451fce1df532655fee1acf4ae4064308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319ed9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7eecb3c38f082998357dec43509f3d23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319eda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31c022694e24e7eabd4902b752b3f60e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319edb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a72b1d3d6e9ded0d517ec455ed399fab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319edc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffe842b2e4e11ad43fc00e40ad6fb99f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319edd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6af3f8449df925e70c1d6c04fba6d7f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319ede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fbb6affb45c73557fea9d290f195815f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319edf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a48da9f78d2fb531760250235bada52a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319ee0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c8966be1763aef19027841dcf3ce76e7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319ee1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1935948806f1adff7cffef5b738f1845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38d2ca319ee2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+  <si>
+    <t>三元组</t>
+  </si>
+  <si>
+    <t>Device Secret</t>
+  </si>
+  <si>
+    <t>ProductKey</t>
+  </si>
+  <si>
+    <t>Device Name</t>
+  </si>
+  <si>
+    <t>451fce1df532655fee1acf4ae4064308</t>
+  </si>
+  <si>
+    <t>3854</t>
+  </si>
+  <si>
+    <t>38d2ca319ed9</t>
+  </si>
+  <si>
+    <t>7eecb3c38f082998357dec43509f3d23</t>
+  </si>
+  <si>
+    <t>38d2ca319eda</t>
+  </si>
+  <si>
+    <t>31c022694e24e7eabd4902b752b3f60e</t>
+  </si>
+  <si>
+    <t>38d2ca319edb</t>
+  </si>
+  <si>
+    <t>a72b1d3d6e9ded0d517ec455ed399fab</t>
+  </si>
+  <si>
+    <t>38d2ca319edc</t>
+  </si>
+  <si>
+    <t>ffe842b2e4e11ad43fc00e40ad6fb99f</t>
+  </si>
+  <si>
+    <t>38d2ca319edd</t>
+  </si>
+  <si>
+    <t>c6af3f8449df925e70c1d6c04fba6d7f</t>
+  </si>
+  <si>
+    <t>38d2ca319ede</t>
+  </si>
+  <si>
+    <t>fbb6affb45c73557fea9d290f195815f</t>
+  </si>
+  <si>
+    <t>38d2ca319edf</t>
+  </si>
+  <si>
+    <t>a48da9f78d2fb531760250235bada52a</t>
+  </si>
+  <si>
+    <t>38d2ca319ee0</t>
+  </si>
+  <si>
+    <t>c8966be1763aef19027841dcf3ce76e7</t>
+  </si>
+  <si>
+    <t>38d2ca319ee1</t>
+  </si>
+  <si>
+    <t>1935948806f1adff7cffef5b738f1845</t>
+  </si>
+  <si>
+    <t>38d2ca319ee2</t>
   </si>
 </sst>
 </file>
@@ -99,31 +96,31 @@
   <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="宋体"/>
+      <sz val="13.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,20 +167,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -191,31 +188,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.6875" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="43.3125" customWidth="1"/>
+    <col min="1" max="1" width="19.6875" customWidth="true"/>
+    <col min="2" max="2" width="39.375" customWidth="true"/>
+    <col min="3" max="3" width="43.3125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s" s="4">
         <v>3</v>
       </c>
     </row>
@@ -229,9 +226,6 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -243,9 +237,6 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -257,9 +248,6 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -271,9 +259,6 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -285,9 +270,6 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -299,9 +281,6 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -313,9 +292,6 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -327,9 +303,6 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -341,9 +314,6 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -354,15 +324,12 @@
       </c>
       <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>